--- a/DAT/input/MORTGAGE.xlsx
+++ b/DAT/input/MORTGAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{0B99069E-35AF-48D8-B7BB-CF96DF6F15AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8EA4E3A-89B5-4C2F-A96C-00A60326A563}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{0B99069E-35AF-48D8-B7BB-CF96DF6F15AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E85144C8-799B-42C7-BBCA-A618A4567FE2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,12 +1024,20 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -2020,7 +2028,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DAT/input/MORTGAGE.xlsx
+++ b/DAT/input/MORTGAGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{0B99069E-35AF-48D8-B7BB-CF96DF6F15AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E85144C8-799B-42C7-BBCA-A618A4567FE2}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{0B99069E-35AF-48D8-B7BB-CF96DF6F15AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDFE5E97-DD9C-4597-8B3E-12F206FFB212}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MORTGAGE" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>USTreas</t>
-  </si>
-  <si>
     <t>Angela</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>mort9</t>
+  </si>
+  <si>
+    <t>CETES</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,10 +1125,10 @@
         <v>46721</v>
       </c>
       <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
       </c>
       <c r="O2">
         <v>203500</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1157,10 +1157,10 @@
         <v>5.21E-2</v>
       </c>
       <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
       <c r="J3">
         <v>777</v>
@@ -1172,10 +1172,10 @@
         <v>45930</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3">
         <v>72803.72</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1204,10 +1204,10 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>605</v>
@@ -1219,10 +1219,10 @@
         <v>46326</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4">
         <v>41633.68</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1251,10 +1251,10 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5">
         <v>756</v>
@@ -1266,10 +1266,10 @@
         <v>46904</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5">
         <v>147324.87</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1313,10 +1313,10 @@
         <v>47238</v>
       </c>
       <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
         <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
       </c>
       <c r="O6">
         <v>208439.88</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1345,10 +1345,10 @@
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7">
         <v>650</v>
@@ -1360,10 +1360,10 @@
         <v>50860</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7">
         <v>45066.34</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1392,10 +1392,10 @@
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8">
         <v>734</v>
@@ -1407,10 +1407,10 @@
         <v>48760</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8">
         <v>108402.03</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1439,10 +1439,10 @@
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
         <v>23</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
       </c>
       <c r="J9">
         <v>756</v>
@@ -1454,10 +1454,10 @@
         <v>48091</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O9">
         <v>149623.54</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1501,10 +1501,10 @@
         <v>47057</v>
       </c>
       <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
         <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>21</v>
       </c>
       <c r="O10">
         <v>239829.04</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1533,10 +1533,10 @@
         <v>5.6800000000000003E-2</v>
       </c>
       <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
         <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
       </c>
       <c r="J11">
         <v>687</v>
@@ -1548,10 +1548,10 @@
         <v>47817</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O11">
         <v>238659.08</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1580,10 +1580,10 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12">
         <v>715</v>
@@ -1595,10 +1595,10 @@
         <v>47879</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O12">
         <v>125611.53</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1627,10 +1627,10 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13">
         <v>784</v>
@@ -1642,10 +1642,10 @@
         <v>47695</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O13">
         <v>121087.12</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1674,10 +1674,10 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
         <v>23</v>
-      </c>
-      <c r="I14" t="s">
-        <v>24</v>
       </c>
       <c r="J14">
         <v>654</v>
@@ -1689,10 +1689,10 @@
         <v>47787</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O14">
         <v>125988.39</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1721,10 +1721,10 @@
         <v>7.3899999999999993E-2</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15">
         <v>635</v>
@@ -1736,10 +1736,10 @@
         <v>45107</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15">
         <v>14418.8</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1768,10 +1768,10 @@
         <v>6.9500000000000006E-2</v>
       </c>
       <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
         <v>23</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
       </c>
       <c r="J16">
         <v>737</v>
@@ -1783,10 +1783,10 @@
         <v>48944</v>
       </c>
       <c r="M16" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O16">
         <v>73781.62</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1815,10 +1815,10 @@
         <v>7.2599999999999998E-2</v>
       </c>
       <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
         <v>23</v>
-      </c>
-      <c r="I17" t="s">
-        <v>24</v>
       </c>
       <c r="J17">
         <v>648</v>
@@ -1830,10 +1830,10 @@
         <v>46446</v>
       </c>
       <c r="M17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
         <v>20</v>
-      </c>
-      <c r="N17" t="s">
-        <v>21</v>
       </c>
       <c r="O17">
         <v>170925.15</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1862,10 +1862,10 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18">
         <v>715</v>
@@ -1877,10 +1877,10 @@
         <v>47907</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O18">
         <v>208953.14</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1909,10 +1909,10 @@
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19">
         <v>597</v>
@@ -1924,10 +1924,10 @@
         <v>46053</v>
       </c>
       <c r="M19" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O19">
         <v>44804.54</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1956,10 +1956,10 @@
         <v>7.8899999999999998E-2</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20">
         <v>613</v>
@@ -1971,10 +1971,10 @@
         <v>48669</v>
       </c>
       <c r="M20" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O20">
         <v>95132.84</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -2003,10 +2003,10 @@
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21">
         <v>789</v>
@@ -2018,10 +2018,10 @@
         <v>50890</v>
       </c>
       <c r="M21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" t="s">
         <v>20</v>
-      </c>
-      <c r="N21" t="s">
-        <v>21</v>
       </c>
       <c r="O21">
         <v>173695.28</v>

--- a/DAT/input/MORTGAGE.xlsx
+++ b/DAT/input/MORTGAGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{0B99069E-35AF-48D8-B7BB-CF96DF6F15AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDFE5E97-DD9C-4597-8B3E-12F206FFB212}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{0B99069E-35AF-48D8-B7BB-CF96DF6F15AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6ABD57A-CE43-4B8A-80F3-830DB4B037BE}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MORTGAGE" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="53">
   <si>
     <t>instid</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Angela</t>
-  </si>
-  <si>
     <t>mort10</t>
   </si>
   <si>
@@ -110,27 +107,18 @@
     <t>N</t>
   </si>
   <si>
-    <t>Bart</t>
-  </si>
-  <si>
     <t>mort11</t>
   </si>
   <si>
     <t>Ginnie</t>
   </si>
   <si>
-    <t>Candice</t>
-  </si>
-  <si>
     <t>mort12</t>
   </si>
   <si>
     <t>Fannie</t>
   </si>
   <si>
-    <t>Doug</t>
-  </si>
-  <si>
     <t>mort13</t>
   </si>
   <si>
@@ -180,6 +168,33 @@
   </si>
   <si>
     <t>CETES</t>
+  </si>
+  <si>
+    <t>TypeOfIndustry</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Infonavit</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Angy</t>
+  </si>
+  <si>
+    <t>Bartolo</t>
+  </si>
+  <si>
+    <t>Candy</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1040,7 +1055,7 @@
     <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,8 +1101,17 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1125,18 +1149,27 @@
         <v>46721</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O2">
         <v>203500</v>
       </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1157,10 +1190,10 @@
         <v>5.21E-2</v>
       </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
       </c>
       <c r="J3">
         <v>777</v>
@@ -1172,18 +1205,27 @@
         <v>45930</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O3">
         <v>72803.72</v>
       </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1204,10 +1246,10 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4">
         <v>605</v>
@@ -1219,18 +1261,27 @@
         <v>46326</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O4">
         <v>41633.68</v>
       </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1251,10 +1302,10 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5">
         <v>756</v>
@@ -1266,18 +1317,27 @@
         <v>46904</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O5">
         <v>147324.87</v>
       </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1313,18 +1373,27 @@
         <v>47238</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O6">
         <v>208439.88</v>
       </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1345,10 +1414,10 @@
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7">
         <v>650</v>
@@ -1360,18 +1429,27 @@
         <v>50860</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O7">
         <v>45066.34</v>
       </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1392,10 +1470,10 @@
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8">
         <v>734</v>
@@ -1407,18 +1485,27 @@
         <v>48760</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O8">
         <v>108402.03</v>
       </c>
+      <c r="P8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1439,10 +1526,10 @@
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
       </c>
       <c r="J9">
         <v>756</v>
@@ -1454,18 +1541,27 @@
         <v>48091</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O9">
         <v>149623.54</v>
       </c>
+      <c r="P9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1501,18 +1597,27 @@
         <v>47057</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O10">
         <v>239829.04</v>
       </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1533,10 +1638,10 @@
         <v>5.6800000000000003E-2</v>
       </c>
       <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
         <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
       </c>
       <c r="J11">
         <v>687</v>
@@ -1548,18 +1653,27 @@
         <v>47817</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O11">
         <v>238659.08</v>
       </c>
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1580,10 +1694,10 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12">
         <v>715</v>
@@ -1595,18 +1709,27 @@
         <v>47879</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O12">
         <v>125611.53</v>
       </c>
+      <c r="P12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1627,10 +1750,10 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13">
         <v>784</v>
@@ -1642,18 +1765,27 @@
         <v>47695</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O13">
         <v>121087.12</v>
       </c>
+      <c r="P13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1674,10 +1806,10 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
         <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
       </c>
       <c r="J14">
         <v>654</v>
@@ -1689,18 +1821,27 @@
         <v>47787</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O14">
         <v>125988.39</v>
       </c>
+      <c r="P14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1721,10 +1862,10 @@
         <v>7.3899999999999993E-2</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <v>635</v>
@@ -1736,18 +1877,27 @@
         <v>45107</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O15">
         <v>14418.8</v>
       </c>
+      <c r="P15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1768,10 +1918,10 @@
         <v>6.9500000000000006E-2</v>
       </c>
       <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
         <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
       </c>
       <c r="J16">
         <v>737</v>
@@ -1783,18 +1933,27 @@
         <v>48944</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O16">
         <v>73781.62</v>
       </c>
+      <c r="P16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1815,10 +1974,10 @@
         <v>7.2599999999999998E-2</v>
       </c>
       <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
         <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>23</v>
       </c>
       <c r="J17">
         <v>648</v>
@@ -1830,18 +1989,27 @@
         <v>46446</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O17">
         <v>170925.15</v>
       </c>
+      <c r="P17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1862,10 +2030,10 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J18">
         <v>715</v>
@@ -1877,18 +2045,27 @@
         <v>47907</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O18">
         <v>208953.14</v>
       </c>
+      <c r="P18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1909,10 +2086,10 @@
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19">
         <v>597</v>
@@ -1924,18 +2101,27 @@
         <v>46053</v>
       </c>
       <c r="M19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N19" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O19">
         <v>44804.54</v>
       </c>
+      <c r="P19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R19" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1956,10 +2142,10 @@
         <v>7.8899999999999998E-2</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20">
         <v>613</v>
@@ -1971,18 +2157,27 @@
         <v>48669</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O20">
         <v>95132.84</v>
       </c>
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -2003,10 +2198,10 @@
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J21">
         <v>789</v>
@@ -2018,13 +2213,22 @@
         <v>50890</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N21" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O21">
         <v>173695.28</v>
+      </c>
+      <c r="P21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
